--- a/biology/Botanique/Érable_à_épis/Érable_à_épis.xlsx
+++ b/biology/Botanique/Érable_à_épis/Érable_à_épis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_%C3%A9pis</t>
+          <t>Érable_à_épis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer spicatum
 L'érable à épis (Acer spicatum), aussi appelé plaine bâtarde, est un petit arbre que l'on rencontre à l'état naturel au nord-est de l'Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_%C3%A9pis</t>
+          <t>Érable_à_épis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les plus petits érables, Acer spicatum mesure généralement de 3 à 8m de hauteur. Ses feuilles trilobées, cordées et grossièrement dentées font de 8 à 12cm de longueur. Des grappes de petites fleurs jaunâtres s'ouvrent vers la fin du printemps, en mai ou juin au Québec. Les fruits sont des disamares rouges.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_%C3%A9pis</t>
+          <t>Érable_à_épis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce pousse dans les bois rocheux et humides, particulièrement à la lisière.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_%C3%A9pis</t>
+          <t>Érable_à_épis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve l'érable à épis du côté est de l'Amérique du Nord, de la Saskatchewan à l'ouest au Labrador à l'est[2], jusqu'à la Géorgie au sud[3]. Au Québec, c'est l'espèce d'érable qui monte le plus au nord[4], jusqu'à la latitude du lac Mistassini.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve l'érable à épis du côté est de l'Amérique du Nord, de la Saskatchewan à l'ouest au Labrador à l'est, jusqu'à la Géorgie au sud. Au Québec, c'est l'espèce d'érable qui monte le plus au nord, jusqu'à la latitude du lac Mistassini.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_%C3%A9pis</t>
+          <t>Érable_à_épis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sève peut être utilisée comme boisson ou être bouillie pour en faire du sirop d'érable[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sève peut être utilisée comme boisson ou être bouillie pour en faire du sirop d'érable.
 </t>
         </is>
       </c>
